--- a/Treeview_Compartiments_dev_sapco.xlsx
+++ b/Treeview_Compartiments_dev_sapco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_commit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE03F1C7-F1CF-4C60-B0A6-676B02B2BA70}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BFB455-4786-42D2-8FFA-8456776071E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="214">
   <si>
     <t>source</t>
   </si>
@@ -44,12 +44,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>bucketname</t>
-  </si>
-  <si>
-    <t>s3://agropur-global-nonprod-account-dev-sapco</t>
-  </si>
-  <si>
     <t>Financials/</t>
   </si>
   <si>
@@ -678,6 +672,12 @@
   </si>
   <si>
     <t>/SAPCO/</t>
+  </si>
+  <si>
+    <t>ZIPRFANLZFINLCUB/</t>
+  </si>
+  <si>
+    <t>ZISCINVBALFINALC/</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BCB69-F888-4B7E-92ED-E9FA4A26428F}">
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,31 +1064,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
         <v>/SAPCO/Inbound/Financials/Costing/</v>
@@ -1098,50 +1095,47 @@
         <v>/SAPCO/Archive/Financials/Costing/</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
+        <f t="shared" ref="A3:A68" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
         <v>/SAPCO/Inbound/Financials/Profitability/</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="1">CONCATENATE(C3,J3,E3,F3,G3,H3)</f>
+        <f t="shared" ref="B3:B68" si="1">CONCATENATE(C3,J3,E3,F3,G3,H3)</f>
         <v>/SAPCO/Archive/Financials/Profitability/</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Financials/Profitability/Historical/</v>
@@ -1151,5201 +1145,5257 @@
         <v>/SAPCO/Archive/Financials/Profitability/Historical/</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
+        <f t="shared" ref="A5" si="2">CONCATENATE(C5,D5,E5,F5,G5,H5)</f>
+        <v>/SAPCO/Inbound/Financials/Profitability/ZIPRFANLZFINLCUB/</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5" si="3">CONCATENATE(C5,J5,E5,F5,G5,H5)</f>
+        <v>/SAPCO/Archive/Financials/Profitability/ZIPRFANLZFINLCUB/</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Balances/</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Inventory/Balances/</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" ref="A7" si="4">CONCATENATE(C7,D7,E7,F7,G7,H7)</f>
+        <v>/SAPCO/Inbound/Inventory/Balances/ZISCINVBALFINALC/</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ref="B7" si="5">CONCATENATE(C7,J7,E7,F7,G7,H7)</f>
+        <v>/SAPCO/Archive/Inventory/Balances/ZISCINVBALFINALC/</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>213</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Transactions/</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Inventory/Transactions/</v>
       </c>
-      <c r="C6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Manufacturing/Overview/</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Manufacturing/Overview/</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Manufacturing/Process Quality/</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Manufacturing/Process Quality/</v>
       </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Invoice Lines/</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Procurement and Spend/Invoice Lines/</v>
       </c>
-      <c r="C9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Purchase Orders/</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Procurement and Spend/Purchase Orders/</v>
       </c>
-      <c r="C10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Purchase Receipts/</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Procurement and Spend/Purchase Receipts/</v>
       </c>
-      <c r="C11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Invoice Lines/</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Sales/Invoice Lines/</v>
       </c>
-      <c r="C12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Order Lines/</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Sales/Order Lines/</v>
       </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Ship Lines/</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Sales/Ship Lines/</v>
       </c>
-      <c r="C14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/Sales/test_TOBEDELETED/</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/Sales/test_TOBEDELETED/</v>
-      </c>
-      <c r="C15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
-      </c>
-      <c r="C16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
+        <v>/SAPCO/Inbound/Sales/test_TOBEDELETED/</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T001/</v>
+        <v>/SAPCO/Archive/Sales/test_TOBEDELETED/</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T001/</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526/</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528/</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531/</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532/</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533/</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534/</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537/</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541/</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542/</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701/</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702/</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703/</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2/</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6/</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC/</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP/</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501/</v>
       </c>
       <c r="C36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503/</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504/</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511/</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512/</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000/</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020/</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100/</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12/</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13/</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21/</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR/</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1/</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC/</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1/</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1/</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5/</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT/</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA/</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH/</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI/</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP/</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV/</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH/</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH/</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM/</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP/</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001/</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900/</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="2">CONCATENATE(C67,D67,E67,F67,G67,H67)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="3">CONCATENATE(C67,J67,E67,F67,G67,H67)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903/</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
+        <f t="shared" si="1"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH/</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
+        <f t="shared" ref="A69:A132" si="6">CONCATENATE(C69,D69,E69,F69,G69,H69)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
+        <f t="shared" ref="B69:B132" si="7">CONCATENATE(C69,J69,E69,F69,G69,H69)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J87" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J100" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J101" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J103" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J110" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J111" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J115" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J116" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J118" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G119" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
       </c>
       <c r="C120" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G120" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G121" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G123" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J123" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G125" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J125" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G126" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J126" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G127" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J127" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G128" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J128" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G129" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="3"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="C130" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G130" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A188" si="4">CONCATENATE(C131,D131,E131,F131,G131,H131)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B188" si="5">CONCATENATE(C131,J131,E131,F131,G131,H131)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F131" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G131" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G132" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J132" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
+        <f t="shared" ref="A133:A190" si="8">CONCATENATE(C133,D133,E133,F133,G133,H133)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
+        <f t="shared" ref="B133:B190" si="9">CONCATENATE(C133,J133,E133,F133,G133,H133)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G133" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J133" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F134" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G134" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G135" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J135" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J136" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G137" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G138" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F139" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G139" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="C140" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G140" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G141" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J141" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G142" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J142" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="C143" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J143" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
       </c>
       <c r="C144" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G144" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J144" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
       </c>
       <c r="C145" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G145" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G146" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
       </c>
       <c r="C147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G147" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA/</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G148" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J148" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
       </c>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G149" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J149" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
       </c>
       <c r="C150" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G150" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
       </c>
       <c r="C151" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G151" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J151" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="C152" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F152" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G152" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J152" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
       </c>
       <c r="C153" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F153" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G153" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J153" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
       </c>
       <c r="C154" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G154" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J154" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="C155" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F155" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G155" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J155" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="C156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G156" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J156" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="C157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G157" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J157" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
       </c>
       <c r="C158" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F158" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G158" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
       </c>
       <c r="C159" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F159" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G159" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
       </c>
       <c r="C160" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F160" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J160" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
       </c>
       <c r="C161" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G161" t="s">
-        <v>129</v>
-      </c>
-      <c r="H161" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J161" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" ref="A162:A165" si="6">CONCATENATE(C162,D162,E162,F162,G162,H162)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" ref="B162:B165" si="7">CONCATENATE(C162,J162,E162,F162,G162,H162)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
       </c>
       <c r="C162" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G162" t="s">
-        <v>129</v>
-      </c>
-      <c r="H162" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J162" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="6"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
       </c>
       <c r="C163" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G163" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H163" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J163" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="6"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
+        <f t="shared" ref="A164:A167" si="10">CONCATENATE(C164,D164,E164,F164,G164,H164)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
+        <f t="shared" ref="B164:B167" si="11">CONCATENATE(C164,J164,E164,F164,G164,H164)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
       </c>
       <c r="C164" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F164" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G164" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H164" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J164" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="6"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="7"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G165" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H165" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J165" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" ref="A166" si="8">CONCATENATE(C166,D166,E166,F166,G166,H166)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" ref="B166" si="9">CONCATENATE(C166,J166,E166,F166,G166,H166)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
       </c>
       <c r="C166" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G166" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J166" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
       </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G167" t="s">
-        <v>184</v>
+        <v>127</v>
+      </c>
+      <c r="H167" t="s">
+        <v>195</v>
       </c>
       <c r="J167" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
+        <f t="shared" ref="A168" si="12">CONCATENATE(C168,D168,E168,F168,G168,H168)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
+        <f t="shared" ref="B168" si="13">CONCATENATE(C168,J168,E168,F168,G168,H168)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
       </c>
       <c r="C168" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F168" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G168" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J168" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" ref="A169:A172" si="10">CONCATENATE(C169,D169,E169,F169,G169,H169)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" ref="B169:B172" si="11">CONCATENATE(C169,J169,E169,F169,G169,H169)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
       </c>
       <c r="C169" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F169" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G169" t="s">
-        <v>185</v>
-      </c>
-      <c r="H169" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="J169" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="10"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="11"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
       </c>
       <c r="C170" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D170" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F170" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G170" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="10"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
+        <f t="shared" ref="A171:A174" si="14">CONCATENATE(C171,D171,E171,F171,G171,H171)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="11"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
+        <f t="shared" ref="B171:B174" si="15">CONCATENATE(C171,J171,E171,F171,G171,H171)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
       </c>
       <c r="C171" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F171" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G171" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J171" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="10"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="11"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
       </c>
       <c r="C172" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F172" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G172" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J172" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
       </c>
       <c r="C173" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F173" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G173" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H173" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J173" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" ref="A174:A181" si="12">CONCATENATE(C174,D174,E174,F174,G174,H174)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" ref="B174:B181" si="13">CONCATENATE(C174,J174,E174,F174,G174,H174)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
       </c>
       <c r="C174" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F174" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G174" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H174" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J174" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
       </c>
       <c r="C175" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F175" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G175" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J175" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
+        <f t="shared" ref="A176:A183" si="16">CONCATENATE(C176,D176,E176,F176,G176,H176)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
+        <f t="shared" ref="B176:B183" si="17">CONCATENATE(C176,J176,E176,F176,G176,H176)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
       </c>
       <c r="C176" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F176" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G176" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H176" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
       </c>
       <c r="C177" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F177" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G177" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H177" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J177" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
       </c>
       <c r="C178" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F178" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G178" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H178" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J178" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
       </c>
       <c r="C179" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F179" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J179" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F180" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G180" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J180" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
       </c>
       <c r="C181" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F181" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G181" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J181" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
       </c>
       <c r="C182" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F182" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G182" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="H182" t="s">
+        <v>209</v>
       </c>
       <c r="J182" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F183" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G183" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="H183" t="s">
+        <v>210</v>
       </c>
       <c r="J183" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="C184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F184" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G184" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J184" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="C185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F185" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G185" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J185" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
       </c>
       <c r="C186" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F186" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G186" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J186" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="4"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="5"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
       </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F187" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G187" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J187" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="C188" t="s">
+        <v>211</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" t="s">
+        <v>91</v>
+      </c>
+      <c r="G188" t="s">
+        <v>189</v>
+      </c>
+      <c r="J188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="C189" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189" t="s">
+        <v>91</v>
+      </c>
+      <c r="G189" t="s">
+        <v>190</v>
+      </c>
+      <c r="J189" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="B188" t="str">
-        <f t="shared" si="5"/>
+      <c r="B190" t="str">
+        <f t="shared" si="9"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="C188" t="s">
-        <v>213</v>
-      </c>
-      <c r="D188" t="s">
-        <v>5</v>
-      </c>
-      <c r="E188" t="s">
-        <v>29</v>
-      </c>
-      <c r="F188" t="s">
-        <v>94</v>
-      </c>
-      <c r="G188" t="s">
-        <v>32</v>
-      </c>
-      <c r="J188" t="s">
-        <v>148</v>
+      <c r="C190" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" t="s">
+        <v>92</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="J190" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Treeview_Compartiments_dev_sapco.xlsx
+++ b/Treeview_Compartiments_dev_sapco.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_commit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_Dev_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BFB455-4786-42D2-8FFA-8456776071E7}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5869DB37-768A-4F79-BC50-091E6F78AB49}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="01Fev23" sheetId="2" r:id="rId1"/>
+    <sheet name="06Fev23" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="246">
   <si>
     <t>source</t>
   </si>
@@ -678,6 +679,102 @@
   </si>
   <si>
     <t>ZISCINVBALFINALC/</t>
+  </si>
+  <si>
+    <t>FINANCIAL/</t>
+  </si>
+  <si>
+    <t>COSTING/</t>
+  </si>
+  <si>
+    <t>PROFITABILITY/</t>
+  </si>
+  <si>
+    <t>HISTORICAL/</t>
+  </si>
+  <si>
+    <t>INVENTORY/</t>
+  </si>
+  <si>
+    <t>BALANCES/</t>
+  </si>
+  <si>
+    <t>TRANSACTIONS/</t>
+  </si>
+  <si>
+    <t>MANUFACTURING/</t>
+  </si>
+  <si>
+    <t>OVERVIEW/</t>
+  </si>
+  <si>
+    <t>PROCESSQUALITY/</t>
+  </si>
+  <si>
+    <t>SALE/</t>
+  </si>
+  <si>
+    <t>INVOICELINES/</t>
+  </si>
+  <si>
+    <t>ORDERLINES/</t>
+  </si>
+  <si>
+    <t>SHIPLINES/</t>
+  </si>
+  <si>
+    <t>PROCUREMENTANDSPEND/</t>
+  </si>
+  <si>
+    <t>INVOICELINE/</t>
+  </si>
+  <si>
+    <t>PURCHASEORDER/</t>
+  </si>
+  <si>
+    <t>PURCHASERECEIPT/</t>
+  </si>
+  <si>
+    <t>T009/</t>
+  </si>
+  <si>
+    <t>T009B/</t>
+  </si>
+  <si>
+    <t>T009C/</t>
+  </si>
+  <si>
+    <t>CHAR/</t>
+  </si>
+  <si>
+    <t>MAT/</t>
+  </si>
+  <si>
+    <t>MID/</t>
+  </si>
+  <si>
+    <t>TOENTITY/</t>
+  </si>
+  <si>
+    <t>ZONED/</t>
+  </si>
+  <si>
+    <t>ZONEP/</t>
+  </si>
+  <si>
+    <t>ZONER/</t>
+  </si>
+  <si>
+    <t>ZONE/</t>
+  </si>
+  <si>
+    <t>T6821/</t>
+  </si>
+  <si>
+    <t>T685/</t>
+  </si>
+  <si>
+    <t>Level_7</t>
   </si>
 </sst>
 </file>
@@ -699,12 +796,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -719,8 +822,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,25 +1143,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BCB69-F888-4B7E-92ED-E9FA4A26428F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E96D89D-8F98-4A45-91B7-DFAA2DB474E5}">
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
         <v>/SAPCO/Inbound/Financials/Costing/</v>
@@ -1110,7 +1215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A68" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
         <v>/SAPCO/Inbound/Financials/Profitability/</v>
@@ -1135,7 +1240,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Financials/Profitability/Historical/</v>
@@ -1163,13 +1268,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f t="shared" ref="A5" si="2">CONCATENATE(C5,D5,E5,F5,G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Financials/Profitability/ZIPRFANLZFINLCUB/</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5" si="3">CONCATENATE(C5,J5,E5,F5,G5,H5)</f>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Financials/Profitability/ZIPRFANLZFINLCUB/</v>
       </c>
       <c r="C5" t="s">
@@ -1191,7 +1296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Balances/</v>
@@ -1216,13 +1321,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f t="shared" ref="A7" si="4">CONCATENATE(C7,D7,E7,F7,G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Balances/ZISCINVBALFINALC/</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7" si="5">CONCATENATE(C7,J7,E7,F7,G7,H7)</f>
+        <f t="shared" si="1"/>
         <v>/SAPCO/Archive/Inventory/Balances/ZISCINVBALFINALC/</v>
       </c>
       <c r="C7" t="s">
@@ -1244,7 +1349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Transactions/</v>
@@ -1269,7 +1374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Manufacturing/Overview/</v>
@@ -1294,7 +1399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Manufacturing/Process Quality/</v>
@@ -1319,7 +1424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Invoice Lines/</v>
@@ -1344,7 +1449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Purchase Orders/</v>
@@ -1369,7 +1474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Purchase Receipts/</v>
@@ -1394,7 +1499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Invoice Lines/</v>
@@ -1419,7 +1524,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Order Lines/</v>
@@ -1444,7 +1549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Ship Lines/</v>
@@ -1469,7 +1574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/test_TOBEDELETED/</v>
@@ -1494,7 +1599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
@@ -1522,7 +1627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
@@ -1550,7 +1655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
@@ -1578,7 +1683,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
@@ -1606,7 +1711,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
@@ -1634,7 +1739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
@@ -1662,7 +1767,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
@@ -1690,7 +1795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
@@ -1718,7 +1823,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
@@ -1746,7 +1851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
@@ -1774,7 +1879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
@@ -1802,7 +1907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
@@ -1830,7 +1935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
@@ -1858,7 +1963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
@@ -1886,7 +1991,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
@@ -1914,7 +2019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
@@ -1942,7 +2047,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
@@ -1970,7 +2075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
@@ -1998,7 +2103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
@@ -2026,7 +2131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
@@ -2054,7 +2159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
@@ -2082,7 +2187,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
@@ -2110,7 +2215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
@@ -2138,7 +2243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
@@ -2166,7 +2271,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
@@ -2194,7 +2299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
@@ -2222,7 +2327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
@@ -2250,7 +2355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
@@ -2278,7 +2383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
@@ -2306,7 +2411,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
@@ -2334,7 +2439,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
@@ -2362,7 +2467,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
@@ -2390,7 +2495,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
@@ -2418,7 +2523,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
@@ -2446,7 +2551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
@@ -2474,7 +2579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
@@ -2502,7 +2607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
@@ -2530,7 +2635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
@@ -2558,7 +2663,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
@@ -2586,7 +2691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
@@ -2614,7 +2719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
@@ -2642,7 +2747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
@@ -2670,7 +2775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
@@ -2698,7 +2803,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
@@ -2726,7 +2831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
@@ -2754,7 +2859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
@@ -2782,7 +2887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
@@ -2810,7 +2915,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
@@ -2838,7 +2943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
@@ -2866,7 +2971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
@@ -2894,7 +2999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
@@ -2922,13 +3027,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A132" si="6">CONCATENATE(C69,D69,E69,F69,G69,H69)</f>
+        <f t="shared" ref="A69:A132" si="2">CONCATENATE(C69,D69,E69,F69,G69,H69)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" ref="B69:B132" si="7">CONCATENATE(C69,J69,E69,F69,G69,H69)</f>
+        <f t="shared" ref="B69:B132" si="3">CONCATENATE(C69,J69,E69,F69,G69,H69)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
       </c>
       <c r="C69" t="s">
@@ -2950,13 +3055,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
       </c>
       <c r="C70" t="s">
@@ -2978,13 +3083,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
       </c>
       <c r="C71" t="s">
@@ -3006,13 +3111,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
       </c>
       <c r="C72" t="s">
@@ -3034,13 +3139,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
       </c>
       <c r="C73" t="s">
@@ -3062,13 +3167,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
       </c>
       <c r="C74" t="s">
@@ -3090,13 +3195,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
       </c>
       <c r="C75" t="s">
@@ -3118,13 +3223,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
       </c>
       <c r="C76" t="s">
@@ -3146,13 +3251,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
       </c>
       <c r="C77" t="s">
@@ -3174,13 +3279,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
       </c>
       <c r="C78" t="s">
@@ -3202,13 +3307,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
       </c>
       <c r="C79" t="s">
@@ -3230,13 +3335,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
       </c>
       <c r="C80" t="s">
@@ -3258,13 +3363,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
       </c>
       <c r="C81" t="s">
@@ -3286,13 +3391,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
       </c>
       <c r="C82" t="s">
@@ -3314,13 +3419,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
       </c>
       <c r="C83" t="s">
@@ -3342,13 +3447,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
       </c>
       <c r="C84" t="s">
@@ -3370,13 +3475,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
       </c>
       <c r="C85" t="s">
@@ -3398,13 +3503,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
       </c>
       <c r="C86" t="s">
@@ -3426,13 +3531,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
       </c>
       <c r="C87" t="s">
@@ -3454,13 +3559,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
       </c>
       <c r="C88" t="s">
@@ -3482,13 +3587,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
       </c>
       <c r="C89" t="s">
@@ -3510,13 +3615,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
       </c>
       <c r="C90" t="s">
@@ -3538,13 +3643,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
       </c>
       <c r="C91" t="s">
@@ -3566,13 +3671,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
       </c>
       <c r="C92" t="s">
@@ -3594,13 +3699,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
       </c>
       <c r="C93" t="s">
@@ -3622,13 +3727,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
       </c>
       <c r="C94" t="s">
@@ -3650,13 +3755,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
       </c>
       <c r="C95" t="s">
@@ -3678,13 +3783,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
       </c>
       <c r="C96" t="s">
@@ -3706,13 +3811,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
       </c>
       <c r="C97" t="s">
@@ -3734,13 +3839,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
       </c>
       <c r="C98" t="s">
@@ -3762,13 +3867,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
       </c>
       <c r="C99" t="s">
@@ -3790,13 +3895,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
       </c>
       <c r="C100" t="s">
@@ -3818,13 +3923,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
       </c>
       <c r="C101" t="s">
@@ -3846,13 +3951,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
       </c>
       <c r="C102" t="s">
@@ -3874,13 +3979,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
       </c>
       <c r="C103" t="s">
@@ -3902,13 +4007,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
       </c>
       <c r="C104" t="s">
@@ -3930,13 +4035,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
       </c>
       <c r="C105" t="s">
@@ -3958,13 +4063,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
       </c>
       <c r="C106" t="s">
@@ -3986,13 +4091,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
       </c>
       <c r="C107" t="s">
@@ -4014,13 +4119,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
       </c>
       <c r="C108" t="s">
@@ -4042,13 +4147,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
       </c>
       <c r="C109" t="s">
@@ -4070,13 +4175,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
       </c>
       <c r="C110" t="s">
@@ -4098,13 +4203,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
       </c>
       <c r="C111" t="s">
@@ -4126,13 +4231,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
       </c>
       <c r="C112" t="s">
@@ -4154,13 +4259,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
       </c>
       <c r="C113" t="s">
@@ -4182,13 +4287,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
       </c>
       <c r="C114" t="s">
@@ -4210,13 +4315,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
       </c>
       <c r="C115" t="s">
@@ -4238,13 +4343,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
       </c>
       <c r="C116" t="s">
@@ -4266,13 +4371,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
       </c>
       <c r="C117" t="s">
@@ -4294,13 +4399,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
       </c>
       <c r="C118" t="s">
@@ -4322,13 +4427,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
       </c>
       <c r="C119" t="s">
@@ -4350,13 +4455,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
       </c>
       <c r="C120" t="s">
@@ -4378,13 +4483,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
       </c>
       <c r="C121" t="s">
@@ -4406,13 +4511,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
       </c>
       <c r="C122" t="s">
@@ -4434,13 +4539,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
       </c>
       <c r="C123" t="s">
@@ -4462,13 +4567,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
       </c>
       <c r="C124" t="s">
@@ -4490,13 +4595,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
       </c>
       <c r="C125" t="s">
@@ -4518,13 +4623,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
       </c>
       <c r="C126" t="s">
@@ -4546,13 +4651,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
       </c>
       <c r="C127" t="s">
@@ -4574,13 +4679,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
       </c>
       <c r="C128" t="s">
@@ -4602,13 +4707,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
       </c>
       <c r="C129" t="s">
@@ -4630,13 +4735,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="C130" t="s">
@@ -4658,13 +4763,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="C131" t="s">
@@ -4686,13 +4791,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="C132" t="s">
@@ -4714,13 +4819,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
-        <f t="shared" ref="A133:A190" si="8">CONCATENATE(C133,D133,E133,F133,G133,H133)</f>
+        <f t="shared" ref="A133:A190" si="4">CONCATENATE(C133,D133,E133,F133,G133,H133)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" ref="B133:B190" si="9">CONCATENATE(C133,J133,E133,F133,G133,H133)</f>
+        <f t="shared" ref="B133:B190" si="5">CONCATENATE(C133,J133,E133,F133,G133,H133)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="C133" t="s">
@@ -4742,14 +4847,5420 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
+      </c>
+      <c r="C134" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" t="s">
+        <v>90</v>
+      </c>
+      <c r="G134" t="s">
+        <v>153</v>
+      </c>
+      <c r="J134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
+      </c>
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" t="s">
+        <v>154</v>
+      </c>
+      <c r="J135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
+      </c>
+      <c r="C136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" t="s">
+        <v>155</v>
+      </c>
+      <c r="J136" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
+      </c>
+      <c r="C137" t="s">
+        <v>211</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" t="s">
+        <v>90</v>
+      </c>
+      <c r="G137" t="s">
+        <v>156</v>
+      </c>
+      <c r="J137" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
+      </c>
+      <c r="C138" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" t="s">
+        <v>90</v>
+      </c>
+      <c r="G138" t="s">
+        <v>157</v>
+      </c>
+      <c r="J138" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
+      </c>
+      <c r="C139" t="s">
+        <v>211</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" t="s">
+        <v>90</v>
+      </c>
+      <c r="G139" t="s">
+        <v>158</v>
+      </c>
+      <c r="J139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
+      </c>
+      <c r="C140" t="s">
+        <v>211</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" t="s">
+        <v>90</v>
+      </c>
+      <c r="G140" t="s">
+        <v>159</v>
+      </c>
+      <c r="J140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
+      </c>
+      <c r="C141" t="s">
+        <v>211</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" t="s">
+        <v>90</v>
+      </c>
+      <c r="G141" t="s">
+        <v>160</v>
+      </c>
+      <c r="J141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
+      </c>
+      <c r="C142" t="s">
+        <v>211</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142" t="s">
+        <v>161</v>
+      </c>
+      <c r="J142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
+      </c>
+      <c r="C143" t="s">
+        <v>211</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" t="s">
+        <v>162</v>
+      </c>
+      <c r="J143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="C144" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" t="s">
+        <v>90</v>
+      </c>
+      <c r="G144" t="s">
+        <v>163</v>
+      </c>
+      <c r="J144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="C145" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" t="s">
+        <v>164</v>
+      </c>
+      <c r="J145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="C146" t="s">
+        <v>211</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" t="s">
+        <v>90</v>
+      </c>
+      <c r="G146" t="s">
+        <v>165</v>
+      </c>
+      <c r="J146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="C147" t="s">
+        <v>211</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" t="s">
+        <v>90</v>
+      </c>
+      <c r="G147" t="s">
+        <v>166</v>
+      </c>
+      <c r="J147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA/</v>
+      </c>
+      <c r="C148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" t="s">
+        <v>167</v>
+      </c>
+      <c r="J148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
+      </c>
+      <c r="C149" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" t="s">
+        <v>91</v>
+      </c>
+      <c r="G149" t="s">
+        <v>168</v>
+      </c>
+      <c r="J149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
+      </c>
+      <c r="C150" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>27</v>
+      </c>
+      <c r="F150" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" t="s">
+        <v>169</v>
+      </c>
+      <c r="J150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
+      </c>
+      <c r="C151" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151" t="s">
+        <v>170</v>
+      </c>
+      <c r="J151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
+      </c>
+      <c r="C152" t="s">
+        <v>211</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>27</v>
+      </c>
+      <c r="F152" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" t="s">
+        <v>171</v>
+      </c>
+      <c r="J152" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
+      </c>
+      <c r="C153" t="s">
+        <v>211</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" t="s">
+        <v>91</v>
+      </c>
+      <c r="G153" t="s">
+        <v>172</v>
+      </c>
+      <c r="J153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+      </c>
+      <c r="C154" t="s">
+        <v>211</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>27</v>
+      </c>
+      <c r="F154" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" t="s">
+        <v>173</v>
+      </c>
+      <c r="J154" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
+      </c>
+      <c r="C155" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155" t="s">
+        <v>174</v>
+      </c>
+      <c r="J155" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
+      </c>
+      <c r="C156" t="s">
+        <v>211</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" t="s">
+        <v>175</v>
+      </c>
+      <c r="J156" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
+      </c>
+      <c r="C157" t="s">
+        <v>211</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" t="s">
+        <v>91</v>
+      </c>
+      <c r="G157" t="s">
+        <v>176</v>
+      </c>
+      <c r="J157" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
+      </c>
+      <c r="C158" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" t="s">
+        <v>177</v>
+      </c>
+      <c r="J158" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+      </c>
+      <c r="C159" t="s">
+        <v>211</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" t="s">
+        <v>178</v>
+      </c>
+      <c r="J159" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+      </c>
+      <c r="C160" t="s">
+        <v>211</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>27</v>
+      </c>
+      <c r="F160" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" t="s">
+        <v>179</v>
+      </c>
+      <c r="J160" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+      </c>
+      <c r="C161" t="s">
+        <v>211</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>27</v>
+      </c>
+      <c r="F161" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161" t="s">
+        <v>180</v>
+      </c>
+      <c r="J161" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
+      </c>
+      <c r="C162" t="s">
+        <v>211</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="s">
+        <v>91</v>
+      </c>
+      <c r="G162" t="s">
+        <v>181</v>
+      </c>
+      <c r="J162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A163" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
+      </c>
+      <c r="C163" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" t="s">
+        <v>127</v>
+      </c>
+      <c r="H163" t="s">
+        <v>191</v>
+      </c>
+      <c r="J163" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
+      </c>
+      <c r="C164" t="s">
+        <v>211</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>27</v>
+      </c>
+      <c r="F164" t="s">
+        <v>91</v>
+      </c>
+      <c r="G164" t="s">
+        <v>127</v>
+      </c>
+      <c r="H164" t="s">
+        <v>192</v>
+      </c>
+      <c r="J164" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
+      </c>
+      <c r="C165" t="s">
+        <v>211</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" t="s">
+        <v>127</v>
+      </c>
+      <c r="H165" t="s">
+        <v>193</v>
+      </c>
+      <c r="J165" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A166" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
+      </c>
+      <c r="C166" t="s">
+        <v>211</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" t="s">
+        <v>91</v>
+      </c>
+      <c r="G166" t="s">
+        <v>127</v>
+      </c>
+      <c r="H166" t="s">
+        <v>194</v>
+      </c>
+      <c r="J166" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A167" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
+      </c>
+      <c r="C167" t="s">
+        <v>211</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" t="s">
+        <v>91</v>
+      </c>
+      <c r="G167" t="s">
+        <v>127</v>
+      </c>
+      <c r="H167" t="s">
+        <v>195</v>
+      </c>
+      <c r="J167" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
+      </c>
+      <c r="C168" t="s">
+        <v>211</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" t="s">
+        <v>91</v>
+      </c>
+      <c r="G168" t="s">
+        <v>127</v>
+      </c>
+      <c r="H168" t="s">
+        <v>196</v>
+      </c>
+      <c r="J168" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
+      </c>
+      <c r="C169" t="s">
+        <v>211</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="s">
+        <v>91</v>
+      </c>
+      <c r="G169" t="s">
+        <v>182</v>
+      </c>
+      <c r="J169" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A170" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
+      </c>
+      <c r="C170" t="s">
+        <v>211</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" t="s">
+        <v>91</v>
+      </c>
+      <c r="G170" t="s">
+        <v>183</v>
+      </c>
+      <c r="H170" t="s">
+        <v>197</v>
+      </c>
+      <c r="J170" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A171" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
+      </c>
+      <c r="C171" t="s">
+        <v>211</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" t="s">
+        <v>91</v>
+      </c>
+      <c r="G171" t="s">
+        <v>183</v>
+      </c>
+      <c r="H171" t="s">
+        <v>198</v>
+      </c>
+      <c r="J171" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A172" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
+      </c>
+      <c r="C172" t="s">
+        <v>211</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" t="s">
+        <v>91</v>
+      </c>
+      <c r="G172" t="s">
+        <v>183</v>
+      </c>
+      <c r="H172" t="s">
+        <v>199</v>
+      </c>
+      <c r="J172" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A173" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
+      </c>
+      <c r="C173" t="s">
+        <v>211</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" t="s">
+        <v>91</v>
+      </c>
+      <c r="G173" t="s">
+        <v>183</v>
+      </c>
+      <c r="H173" t="s">
+        <v>200</v>
+      </c>
+      <c r="J173" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
+      </c>
+      <c r="C174" t="s">
+        <v>211</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" t="s">
+        <v>91</v>
+      </c>
+      <c r="G174" t="s">
+        <v>183</v>
+      </c>
+      <c r="H174" t="s">
+        <v>201</v>
+      </c>
+      <c r="J174" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
+      </c>
+      <c r="C175" t="s">
+        <v>211</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" t="s">
+        <v>91</v>
+      </c>
+      <c r="G175" t="s">
+        <v>184</v>
+      </c>
+      <c r="H175" t="s">
+        <v>202</v>
+      </c>
+      <c r="J175" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
+      </c>
+      <c r="C176" t="s">
+        <v>211</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" t="s">
+        <v>91</v>
+      </c>
+      <c r="G176" t="s">
+        <v>184</v>
+      </c>
+      <c r="H176" t="s">
+        <v>203</v>
+      </c>
+      <c r="J176" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
+      </c>
+      <c r="C177" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" t="s">
+        <v>91</v>
+      </c>
+      <c r="G177" t="s">
+        <v>184</v>
+      </c>
+      <c r="H177" t="s">
+        <v>204</v>
+      </c>
+      <c r="J177" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
+      </c>
+      <c r="C178" t="s">
+        <v>211</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" t="s">
+        <v>91</v>
+      </c>
+      <c r="G178" t="s">
+        <v>184</v>
+      </c>
+      <c r="H178" t="s">
+        <v>205</v>
+      </c>
+      <c r="J178" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
+      </c>
+      <c r="C179" t="s">
+        <v>211</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" t="s">
+        <v>91</v>
+      </c>
+      <c r="G179" t="s">
+        <v>184</v>
+      </c>
+      <c r="H179" t="s">
+        <v>206</v>
+      </c>
+      <c r="J179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A180" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
+      </c>
+      <c r="C180" t="s">
+        <v>211</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" t="s">
+        <v>91</v>
+      </c>
+      <c r="G180" t="s">
+        <v>184</v>
+      </c>
+      <c r="H180" t="s">
+        <v>207</v>
+      </c>
+      <c r="J180" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A181" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
+      </c>
+      <c r="C181" t="s">
+        <v>211</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" t="s">
+        <v>91</v>
+      </c>
+      <c r="G181" t="s">
+        <v>184</v>
+      </c>
+      <c r="H181" t="s">
+        <v>208</v>
+      </c>
+      <c r="J181" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A182" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
+      </c>
+      <c r="C182" t="s">
+        <v>211</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" t="s">
+        <v>91</v>
+      </c>
+      <c r="G182" t="s">
+        <v>184</v>
+      </c>
+      <c r="H182" t="s">
+        <v>209</v>
+      </c>
+      <c r="J182" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A183" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
+      </c>
+      <c r="C183" t="s">
+        <v>211</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" t="s">
+        <v>91</v>
+      </c>
+      <c r="G183" t="s">
+        <v>184</v>
+      </c>
+      <c r="H183" t="s">
+        <v>210</v>
+      </c>
+      <c r="J183" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A184" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+      </c>
+      <c r="C184" t="s">
+        <v>211</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>27</v>
+      </c>
+      <c r="F184" t="s">
+        <v>91</v>
+      </c>
+      <c r="G184" t="s">
+        <v>185</v>
+      </c>
+      <c r="J184" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A185" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
+      </c>
+      <c r="C185" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>27</v>
+      </c>
+      <c r="F185" t="s">
+        <v>91</v>
+      </c>
+      <c r="G185" t="s">
+        <v>186</v>
+      </c>
+      <c r="J185" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A186" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+      </c>
+      <c r="C186" t="s">
+        <v>211</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" t="s">
+        <v>91</v>
+      </c>
+      <c r="G186" t="s">
+        <v>187</v>
+      </c>
+      <c r="J186" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+      </c>
+      <c r="C187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>27</v>
+      </c>
+      <c r="F187" t="s">
+        <v>91</v>
+      </c>
+      <c r="G187" t="s">
+        <v>188</v>
+      </c>
+      <c r="J187" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A188" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="C188" t="s">
+        <v>211</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" t="s">
+        <v>91</v>
+      </c>
+      <c r="G188" t="s">
+        <v>189</v>
+      </c>
+      <c r="J188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A189" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="C189" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189" t="s">
+        <v>91</v>
+      </c>
+      <c r="G189" t="s">
+        <v>190</v>
+      </c>
+      <c r="J189" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A190" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="C190" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" t="s">
+        <v>92</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="J190" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BCB69-F888-4B7E-92ED-E9FA4A26428F}">
+  <dimension ref="A1:K194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/COSTING/</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(C2,K2,E2,F2,G2,H2)</f>
+        <v>/SAPCO/Archive/FINANCIAL/COSTING/</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A68" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE(C3,K3,E3,F3,G3,H3)</f>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4" si="1">CONCATENATE(C4,D4,E4,F4,G4,H4)</f>
+        <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4" si="2">CONCATENATE(C4,K4,E4,F4,G4,H4)</f>
+        <v>/SAPCO/Archive/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/INVENTORY/BALANCES/</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B16" si="3">CONCATENATE(C5,K5,E5,F5,G5,H5)</f>
+        <v>/SAPCO/Archive/INVENTORY/BALANCES/</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/INVENTORY/TRANSACTIONS/</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/INVENTORY/TRANSACTIONS/</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/MANUFACTURING/OVERVIEW/</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/MANUFACTURING/PROCESSQUALITY/</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/INVOICELINE/</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASERECEIPT/</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/PROCUREMENTANDSPEND/PURCHASERECEIPT/</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/SALE/INVOICELINES/</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/SALE/INVOICELINES/</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/SALE/ORDERLINES/</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/SALE/ORDERLINES/</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/SALE/SHIPLINES/</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/SALE/SHIPLINES/</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="3"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T001/</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="str">
+        <f t="shared" ref="A17:A19" si="4">CONCATENATE(C17,D17,E17,F17,G17,H17)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009/</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" ref="B17:B19" si="5">CONCATENATE(C17,K17,E17,F17,G17,H17)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009/</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009B/</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009B/</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009C/</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/FIN/T009C/</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:B51" si="6">CONCATENATE(C20,K20,E20,F20,G20,H20)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A526/</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A528/</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A531/</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A532/</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A533/</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A534/</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A537/</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A541/</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A542/</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A701/</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A702/</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/A703/</v>
+      </c>
+      <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR2/</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADR6/</v>
+      </c>
+      <c r="C33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ADRC/</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/AUSP/</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B501/</v>
+      </c>
+      <c r="C36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B503/</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B504/</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B511/</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/B512/</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT000/</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT020/</v>
+      </c>
+      <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/BUT100/</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
+      </c>
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP12/</v>
+      </c>
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP13/</v>
+      </c>
+      <c r="C47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDP21/</v>
+      </c>
+      <c r="C48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPAR/</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDPP1/</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="6"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/EDSDC/</v>
+      </c>
+      <c r="C51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" ref="B52:B68" si="7">CONCATENATE(C52,K52,E52,F52,G52,H52)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNA1/</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB1/</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNB5/</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMT/</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNMTA/</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVH/</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVI/</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVP/</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KNVV/</v>
+      </c>
+      <c r="C60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONDH/</v>
+      </c>
+      <c r="C61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONH/</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONM/</v>
+      </c>
+      <c r="C63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KONP/</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH001/</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH900/</v>
+      </c>
+      <c r="C66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/KOTH903/</v>
+      </c>
+      <c r="C67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f t="shared" si="0"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="7"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/NACH/</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f t="shared" ref="A69:A136" si="8">CONCATENATE(C69,D69,E69,F69,G69,H69)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" ref="B69:B136" si="9">CONCATENATE(C69,K69,E69,F69,G69,H69)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXH/</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="K69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/STXL/</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="str">
+        <f t="shared" ref="A71:A72" si="10">CONCATENATE(C71,D71,E71,F71,G71,H71)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T6821/</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" ref="B71:B72" si="11">CONCATENATE(C71,K71,E71,F71,G71,H71)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T6821/</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T685/</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/T685/</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/TVKO/</v>
+      </c>
+      <c r="C73" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
+      </c>
+      <c r="C74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="K74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="K75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/UKMBP/</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="K76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/OTC/ZTCO/</v>
+      </c>
+      <c r="C77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AFPO/</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>93</v>
+      </c>
+      <c r="K78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/AUFK/</v>
+      </c>
+      <c r="C79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>94</v>
+      </c>
+      <c r="K79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CABN/</v>
+      </c>
+      <c r="C80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s">
+        <v>95</v>
+      </c>
+      <c r="K80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CAUFV/</v>
+      </c>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
+      <c r="K81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCA/</v>
+      </c>
+      <c r="C82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>97</v>
+      </c>
+      <c r="K82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRCO/</v>
+      </c>
+      <c r="C83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+      <c r="K83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRHD/</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
+      <c r="K84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/CRTX/</v>
+      </c>
+      <c r="C85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s">
+        <v>100</v>
+      </c>
+      <c r="K85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKO/</v>
+      </c>
+      <c r="C86" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KAKT/</v>
+      </c>
+      <c r="C87" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s">
+        <v>102</v>
+      </c>
+      <c r="K87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/KLAH/</v>
+      </c>
+      <c r="C88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s">
+        <v>103</v>
+      </c>
+      <c r="K88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAKT/</v>
+      </c>
+      <c r="C89" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
+      <c r="K89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAPL/</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" t="s">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="K90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARA/</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARC/</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+      <c r="K92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARD/</v>
+      </c>
+      <c r="C93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" t="s">
+        <v>88</v>
+      </c>
+      <c r="G93" t="s">
+        <v>108</v>
+      </c>
+      <c r="K93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MARM/</v>
+      </c>
+      <c r="C94" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G94" t="s">
+        <v>109</v>
+      </c>
+      <c r="K94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MAST/</v>
+      </c>
+      <c r="C95" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>110</v>
+      </c>
+      <c r="K95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MKAL/</v>
+      </c>
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s">
+        <v>111</v>
+      </c>
+      <c r="K96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MLAN/</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
+        <v>88</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
+      <c r="K97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/MVKE/</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>88</v>
+      </c>
+      <c r="G98" t="s">
+        <v>113</v>
+      </c>
+      <c r="K98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLKO/</v>
+      </c>
+      <c r="C99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
+        <v>88</v>
+      </c>
+      <c r="G99" t="s">
+        <v>114</v>
+      </c>
+      <c r="K99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLMK/</v>
+      </c>
+      <c r="C100" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s">
+        <v>115</v>
+      </c>
+      <c r="K100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/PLPO/</v>
+      </c>
+      <c r="C101" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s">
+        <v>116</v>
+      </c>
+      <c r="K101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVK/</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s">
+        <v>117</v>
+      </c>
+      <c r="K102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVM/</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s">
+        <v>118</v>
+      </c>
+      <c r="K103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVMT/</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
+      <c r="K104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QCVV/</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s">
+        <v>120</v>
+      </c>
+      <c r="K105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMAT/</v>
+      </c>
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s">
+        <v>121</v>
+      </c>
+      <c r="K106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTB/</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
+      <c r="K107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QMTT/</v>
+      </c>
+      <c r="C108" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s">
+        <v>123</v>
+      </c>
+      <c r="K108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMK/</v>
+      </c>
+      <c r="C109" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s">
+        <v>124</v>
+      </c>
+      <c r="K109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/QPMZ/</v>
+      </c>
+      <c r="C110" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" t="s">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s">
+        <v>125</v>
+      </c>
+      <c r="K110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/RESB/</v>
+      </c>
+      <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+      <c r="K111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="str">
+        <f>CONCATENATE(C112,D112,E112,F112,G112,H112,I112)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
+      </c>
+      <c r="B112" s="2" t="str">
+        <f>CONCATENATE(C112,K112,E112,F112,G112,H112,I112)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="K112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="str">
+        <f>CONCATENATE(C113,D113,E113,F113,G113,H113,I113)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>CONCATENATE(C113,K113,E113,F113,G113,H113,I113)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="str">
+        <f>CONCATENATE(C114,D114,E114,F114,G114,H114,I114)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>CONCATENATE(C114,K114,E114,F114,G114,H114,I114)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" t="str">
+        <f>CONCATENATE(C115,D115,E115,F115,G115,H115)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STKO/</v>
+      </c>
+      <c r="C115" t="s">
+        <v>211</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115" t="s">
+        <v>128</v>
+      </c>
+      <c r="K115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/STPO/</v>
+      </c>
+      <c r="C116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" t="s">
+        <v>88</v>
+      </c>
+      <c r="G116" t="s">
+        <v>129</v>
+      </c>
+      <c r="K116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
+      </c>
+      <c r="C117" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" t="s">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A017/</v>
+      </c>
+      <c r="C118" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" t="s">
+        <v>131</v>
+      </c>
+      <c r="K118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/A018/</v>
+      </c>
+      <c r="C119" t="s">
+        <v>211</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" t="s">
+        <v>132</v>
+      </c>
+      <c r="K119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINA/</v>
+      </c>
+      <c r="C120" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120" t="s">
+        <v>133</v>
+      </c>
+      <c r="K120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EINE/</v>
+      </c>
+      <c r="C121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" t="s">
+        <v>134</v>
+      </c>
+      <c r="K121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/EORD/</v>
+      </c>
+      <c r="C122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" t="s">
+        <v>135</v>
+      </c>
+      <c r="K122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/KNBK/</v>
+      </c>
+      <c r="C123" t="s">
+        <v>211</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" t="s">
+        <v>136</v>
+      </c>
+      <c r="K123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFA1/</v>
+      </c>
+      <c r="C124" t="s">
+        <v>211</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124" t="s">
+        <v>137</v>
+      </c>
+      <c r="K124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFB1/</v>
+      </c>
+      <c r="C125" t="s">
+        <v>211</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G125" t="s">
+        <v>138</v>
+      </c>
+      <c r="K125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBK/</v>
+      </c>
+      <c r="C126" t="s">
+        <v>211</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" t="s">
+        <v>89</v>
+      </c>
+      <c r="G126" t="s">
+        <v>139</v>
+      </c>
+      <c r="K126" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFBW/</v>
+      </c>
+      <c r="C127" t="s">
+        <v>211</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
+        <v>89</v>
+      </c>
+      <c r="G127" t="s">
+        <v>140</v>
+      </c>
+      <c r="K127" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/LFM1/</v>
+      </c>
+      <c r="C128" t="s">
+        <v>211</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G128" t="s">
+        <v>141</v>
+      </c>
+      <c r="K128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T001W/</v>
+      </c>
+      <c r="C129" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" t="s">
+        <v>142</v>
+      </c>
+      <c r="K129" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/T024E/</v>
+      </c>
+      <c r="C130" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130" t="s">
+        <v>143</v>
+      </c>
+      <c r="K130" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/PTP/WYT3/</v>
+      </c>
+      <c r="C131" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
+        <v>89</v>
+      </c>
+      <c r="G131" t="s">
+        <v>144</v>
+      </c>
+      <c r="K131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANEP/</v>
+      </c>
+      <c r="C132" t="s">
+        <v>211</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" t="s">
+        <v>147</v>
+      </c>
+      <c r="K132" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" t="str">
+        <f t="shared" si="8"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="9"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLA/</v>
+      </c>
+      <c r="C133" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133" t="s">
+        <v>148</v>
+      </c>
+      <c r="K133" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLB/</v>
       </c>
       <c r="C134" t="s">
         <v>211</v>
@@ -4764,20 +10275,20 @@
         <v>90</v>
       </c>
       <c r="G134" t="s">
-        <v>153</v>
-      </c>
-      <c r="J134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="K134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLC/</v>
       </c>
       <c r="C135" t="s">
         <v>211</v>
@@ -4792,20 +10303,20 @@
         <v>90</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
-      </c>
-      <c r="J135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="K135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLH/</v>
       </c>
       <c r="C136" t="s">
         <v>211</v>
@@ -4820,20 +10331,20 @@
         <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>155</v>
-      </c>
-      <c r="J136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="K136" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
+        <f t="shared" ref="A137:A194" si="12">CONCATENATE(C137,D137,E137,F137,G137,H137)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
+        <f t="shared" ref="B137:B194" si="13">CONCATENATE(C137,K137,E137,F137,G137,H137)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="C137" t="s">
         <v>211</v>
@@ -4848,20 +10359,20 @@
         <v>90</v>
       </c>
       <c r="G137" t="s">
-        <v>156</v>
-      </c>
-      <c r="J137" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="K137" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BKPF/</v>
       </c>
       <c r="C138" t="s">
         <v>211</v>
@@ -4876,20 +10387,20 @@
         <v>90</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
-      </c>
-      <c r="J138" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="K138" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BNKA/</v>
       </c>
       <c r="C139" t="s">
         <v>211</v>
@@ -4904,20 +10415,20 @@
         <v>90</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
-      </c>
-      <c r="J139" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="K139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSET/</v>
       </c>
       <c r="C140" t="s">
         <v>211</v>
@@ -4932,20 +10443,20 @@
         <v>90</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
-      </c>
-      <c r="J140" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="K140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/BSIS/</v>
       </c>
       <c r="C141" t="s">
         <v>211</v>
@@ -4960,20 +10471,20 @@
         <v>90</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
-      </c>
-      <c r="J141" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="K141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKS/</v>
       </c>
       <c r="C142" t="s">
         <v>211</v>
@@ -4988,20 +10499,20 @@
         <v>90</v>
       </c>
       <c r="G142" t="s">
-        <v>161</v>
-      </c>
-      <c r="J142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="K142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/CSKT/</v>
       </c>
       <c r="C143" t="s">
         <v>211</v>
@@ -5016,20 +10527,20 @@
         <v>90</v>
       </c>
       <c r="G143" t="s">
-        <v>162</v>
-      </c>
-      <c r="J143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="K143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRHI/</v>
       </c>
       <c r="C144" t="s">
         <v>211</v>
@@ -5044,20 +10555,20 @@
         <v>90</v>
       </c>
       <c r="G144" t="s">
-        <v>163</v>
-      </c>
-      <c r="J144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="K144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PROJ/</v>
       </c>
       <c r="C145" t="s">
         <v>211</v>
@@ -5072,20 +10583,20 @@
         <v>90</v>
       </c>
       <c r="G145" t="s">
-        <v>164</v>
-      </c>
-      <c r="J145" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/PRPS/</v>
       </c>
       <c r="C146" t="s">
         <v>211</v>
@@ -5100,20 +10611,20 @@
         <v>90</v>
       </c>
       <c r="G146" t="s">
-        <v>165</v>
-      </c>
-      <c r="J146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="K146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKA1/</v>
       </c>
       <c r="C147" t="s">
         <v>211</v>
@@ -5128,132 +10639,132 @@
         <v>90</v>
       </c>
       <c r="G147" t="s">
+        <v>162</v>
+      </c>
+      <c r="K147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKAT/</v>
+      </c>
+      <c r="C148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" t="s">
+        <v>90</v>
+      </c>
+      <c r="G148" t="s">
+        <v>163</v>
+      </c>
+      <c r="K148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/SKB1/</v>
+      </c>
+      <c r="C149" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" t="s">
+        <v>90</v>
+      </c>
+      <c r="G149" t="s">
+        <v>164</v>
+      </c>
+      <c r="K149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
+      </c>
+      <c r="C150" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>27</v>
+      </c>
+      <c r="F150" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150" t="s">
+        <v>165</v>
+      </c>
+      <c r="K150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
+      </c>
+      <c r="C151" t="s">
+        <v>211</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" t="s">
+        <v>90</v>
+      </c>
+      <c r="G151" t="s">
         <v>166</v>
       </c>
-      <c r="J147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
-        <f t="shared" si="8"/>
+      <c r="K151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
       </c>
-      <c r="B148" t="str">
-        <f t="shared" si="9"/>
+      <c r="B152" t="str">
+        <f t="shared" si="13"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/AQUA/</v>
-      </c>
-      <c r="C148" t="s">
-        <v>211</v>
-      </c>
-      <c r="D148" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" t="s">
-        <v>91</v>
-      </c>
-      <c r="G148" t="s">
-        <v>167</v>
-      </c>
-      <c r="J148" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
-      </c>
-      <c r="B149" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
-      </c>
-      <c r="C149" t="s">
-        <v>211</v>
-      </c>
-      <c r="D149" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" t="s">
-        <v>27</v>
-      </c>
-      <c r="F149" t="s">
-        <v>91</v>
-      </c>
-      <c r="G149" t="s">
-        <v>168</v>
-      </c>
-      <c r="J149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
-      </c>
-      <c r="B150" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
-      </c>
-      <c r="C150" t="s">
-        <v>211</v>
-      </c>
-      <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" t="s">
-        <v>27</v>
-      </c>
-      <c r="F150" t="s">
-        <v>91</v>
-      </c>
-      <c r="G150" t="s">
-        <v>169</v>
-      </c>
-      <c r="J150" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
-      </c>
-      <c r="B151" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
-      </c>
-      <c r="C151" t="s">
-        <v>211</v>
-      </c>
-      <c r="D151" t="s">
-        <v>3</v>
-      </c>
-      <c r="E151" t="s">
-        <v>27</v>
-      </c>
-      <c r="F151" t="s">
-        <v>91</v>
-      </c>
-      <c r="G151" t="s">
-        <v>170</v>
-      </c>
-      <c r="J151" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
-      </c>
-      <c r="B152" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="C152" t="s">
         <v>211</v>
@@ -5268,20 +10779,20 @@
         <v>91</v>
       </c>
       <c r="G152" t="s">
-        <v>171</v>
-      </c>
-      <c r="J152" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="K152" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/BINMAT/</v>
       </c>
       <c r="C153" t="s">
         <v>211</v>
@@ -5296,20 +10807,20 @@
         <v>91</v>
       </c>
       <c r="G153" t="s">
-        <v>172</v>
-      </c>
-      <c r="J153" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="K153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/CONDINDX/</v>
       </c>
       <c r="C154" t="s">
         <v>211</v>
@@ -5324,20 +10835,20 @@
         <v>91</v>
       </c>
       <c r="G154" t="s">
-        <v>173</v>
-      </c>
-      <c r="J154" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="K154" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/HUHDR/</v>
       </c>
       <c r="C155" t="s">
         <v>211</v>
@@ -5352,20 +10863,20 @@
         <v>91</v>
       </c>
       <c r="G155" t="s">
-        <v>174</v>
-      </c>
-      <c r="J155" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="K155" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/LAGP/</v>
       </c>
       <c r="C156" t="s">
         <v>211</v>
@@ -5380,20 +10891,20 @@
         <v>91</v>
       </c>
       <c r="G156" t="s">
-        <v>175</v>
-      </c>
-      <c r="J156" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="K156" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWH/</v>
       </c>
       <c r="C157" t="s">
         <v>211</v>
@@ -5408,20 +10919,20 @@
         <v>91</v>
       </c>
       <c r="G157" t="s">
-        <v>176</v>
-      </c>
-      <c r="J157" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="K157" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MATLWHST/</v>
       </c>
       <c r="C158" t="s">
         <v>211</v>
@@ -5436,20 +10947,20 @@
         <v>91</v>
       </c>
       <c r="G158" t="s">
-        <v>177</v>
-      </c>
-      <c r="J158" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="K158" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MCHA/</v>
       </c>
       <c r="C159" t="s">
         <v>211</v>
@@ -5464,20 +10975,20 @@
         <v>91</v>
       </c>
       <c r="G159" t="s">
-        <v>178</v>
-      </c>
-      <c r="J159" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="K159" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MKPF/</v>
       </c>
       <c r="C160" t="s">
         <v>211</v>
@@ -5492,20 +11003,20 @@
         <v>91</v>
       </c>
       <c r="G160" t="s">
-        <v>179</v>
-      </c>
-      <c r="J160" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="K160" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/MSEG/</v>
       </c>
       <c r="C161" t="s">
         <v>211</v>
@@ -5520,20 +11031,20 @@
         <v>91</v>
       </c>
       <c r="G161" t="s">
-        <v>180</v>
-      </c>
-      <c r="J161" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="K161" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PAPAK/</v>
       </c>
       <c r="C162" t="s">
         <v>211</v>
@@ -5548,20 +11059,20 @@
         <v>91</v>
       </c>
       <c r="G162" t="s">
-        <v>181</v>
-      </c>
-      <c r="J162" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="K162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PNPAKH/</v>
       </c>
       <c r="C163" t="s">
         <v>211</v>
@@ -5576,23 +11087,20 @@
         <v>91</v>
       </c>
       <c r="G163" t="s">
-        <v>127</v>
-      </c>
-      <c r="H163" t="s">
-        <v>191</v>
-      </c>
-      <c r="J163" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="K163" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
-        <f t="shared" ref="A164:A167" si="10">CONCATENATE(C164,D164,E164,F164,G164,H164)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" ref="B164:B167" si="11">CONCATENATE(C164,J164,E164,F164,G164,H164)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKC/</v>
       </c>
       <c r="C164" t="s">
         <v>211</v>
@@ -5607,23 +11115,20 @@
         <v>91</v>
       </c>
       <c r="G164" t="s">
-        <v>127</v>
-      </c>
-      <c r="H164" t="s">
-        <v>192</v>
-      </c>
-      <c r="J164" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="K164" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
-        <f t="shared" si="10"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="11"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/PVPAKL/</v>
       </c>
       <c r="C165" t="s">
         <v>211</v>
@@ -5638,23 +11143,20 @@
         <v>91</v>
       </c>
       <c r="G165" t="s">
-        <v>127</v>
-      </c>
-      <c r="H165" t="s">
-        <v>193</v>
-      </c>
-      <c r="J165" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="K165" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
-        <f t="shared" si="10"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="11"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/QUAN/</v>
       </c>
       <c r="C166" t="s">
         <v>211</v>
@@ -5669,23 +11171,20 @@
         <v>91</v>
       </c>
       <c r="G166" t="s">
-        <v>127</v>
-      </c>
-      <c r="H166" t="s">
-        <v>194</v>
-      </c>
-      <c r="J166" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="K166" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
-        <f t="shared" si="10"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="11"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
       </c>
       <c r="C167" t="s">
         <v>211</v>
@@ -5702,21 +11201,21 @@
       <c r="G167" t="s">
         <v>127</v>
       </c>
-      <c r="H167" t="s">
-        <v>195</v>
-      </c>
-      <c r="J167" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H167" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K167" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
-        <f t="shared" ref="A168" si="12">CONCATENATE(C168,D168,E168,F168,G168,H168)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
+        <f t="shared" ref="A168:A171" si="14">CONCATENATE(C168,D168,E168,F168,G168,H168)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" ref="B168" si="13">CONCATENATE(C168,J168,E168,F168,G168,H168)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
+        <f t="shared" ref="B168:B171" si="15">CONCATENATE(C168,K168,E168,F168,G168,H168)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
       </c>
       <c r="C168" t="s">
         <v>211</v>
@@ -5733,21 +11232,21 @@
       <c r="G168" t="s">
         <v>127</v>
       </c>
-      <c r="H168" t="s">
-        <v>196</v>
-      </c>
-      <c r="J168" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H168" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K168" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
       </c>
       <c r="C169" t="s">
         <v>211</v>
@@ -5762,20 +11261,23 @@
         <v>91</v>
       </c>
       <c r="G169" t="s">
-        <v>182</v>
-      </c>
-      <c r="J169" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K169" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
       </c>
       <c r="C170" t="s">
         <v>211</v>
@@ -5790,23 +11292,23 @@
         <v>91</v>
       </c>
       <c r="G170" t="s">
-        <v>183</v>
-      </c>
-      <c r="H170" t="s">
-        <v>197</v>
-      </c>
-      <c r="J170" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K170" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
-        <f t="shared" ref="A171:A174" si="14">CONCATENATE(C171,D171,E171,F171,G171,H171)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
+        <f t="shared" si="14"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" ref="B171:B174" si="15">CONCATENATE(C171,J171,E171,F171,G171,H171)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
+        <f t="shared" si="15"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
       </c>
       <c r="C171" t="s">
         <v>211</v>
@@ -5821,23 +11323,23 @@
         <v>91</v>
       </c>
       <c r="G171" t="s">
-        <v>183</v>
-      </c>
-      <c r="H171" t="s">
-        <v>198</v>
-      </c>
-      <c r="J171" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K171" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
-        <f t="shared" si="14"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
+        <f t="shared" ref="A172" si="16">CONCATENATE(C172,D172,E172,F172,G172,H172)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="15"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
+        <f t="shared" ref="B172" si="17">CONCATENATE(C172,K172,E172,F172,G172,H172)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="C172" t="s">
         <v>211</v>
@@ -5852,23 +11354,23 @@
         <v>91</v>
       </c>
       <c r="G172" t="s">
-        <v>183</v>
-      </c>
-      <c r="H172" t="s">
-        <v>199</v>
-      </c>
-      <c r="J172" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K172" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
-        <f t="shared" si="14"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="15"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
       </c>
       <c r="C173" t="s">
         <v>211</v>
@@ -5883,23 +11385,20 @@
         <v>91</v>
       </c>
       <c r="G173" t="s">
-        <v>183</v>
-      </c>
-      <c r="H173" t="s">
-        <v>200</v>
-      </c>
-      <c r="J173" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="K173" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
-        <f t="shared" si="14"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="15"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="C174" t="s">
         <v>211</v>
@@ -5916,21 +11415,21 @@
       <c r="G174" t="s">
         <v>183</v>
       </c>
-      <c r="H174" t="s">
-        <v>201</v>
-      </c>
-      <c r="J174" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H174" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K174" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
+        <f t="shared" ref="A175:A178" si="18">CONCATENATE(C175,D175,E175,F175,G175,H175)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
+        <f t="shared" ref="B175:B178" si="19">CONCATENATE(C175,K175,E175,F175,G175,H175)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="C175" t="s">
         <v>211</v>
@@ -5945,23 +11444,23 @@
         <v>91</v>
       </c>
       <c r="G175" t="s">
-        <v>184</v>
-      </c>
-      <c r="H175" t="s">
-        <v>202</v>
-      </c>
-      <c r="J175" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K175" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
-        <f t="shared" ref="A176:A183" si="16">CONCATENATE(C176,D176,E176,F176,G176,H176)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
+        <f t="shared" si="18"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" ref="B176:B183" si="17">CONCATENATE(C176,J176,E176,F176,G176,H176)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
+        <f t="shared" si="19"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="C176" t="s">
         <v>211</v>
@@ -5976,23 +11475,23 @@
         <v>91</v>
       </c>
       <c r="G176" t="s">
-        <v>184</v>
-      </c>
-      <c r="H176" t="s">
-        <v>203</v>
-      </c>
-      <c r="J176" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K176" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
+        <f t="shared" si="18"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
+        <f t="shared" si="19"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
       </c>
       <c r="C177" t="s">
         <v>211</v>
@@ -6007,23 +11506,23 @@
         <v>91</v>
       </c>
       <c r="G177" t="s">
-        <v>184</v>
-      </c>
-      <c r="H177" t="s">
-        <v>204</v>
-      </c>
-      <c r="J177" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K177" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
+        <f t="shared" si="18"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
+        <f t="shared" si="19"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
       </c>
       <c r="C178" t="s">
         <v>211</v>
@@ -6038,23 +11537,23 @@
         <v>91</v>
       </c>
       <c r="G178" t="s">
-        <v>184</v>
-      </c>
-      <c r="H178" t="s">
-        <v>205</v>
-      </c>
-      <c r="J178" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K178" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
       <c r="C179" t="s">
         <v>211</v>
@@ -6071,21 +11570,21 @@
       <c r="G179" t="s">
         <v>184</v>
       </c>
-      <c r="H179" t="s">
-        <v>206</v>
-      </c>
-      <c r="J179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H179" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
+        <f t="shared" ref="A180:A187" si="20">CONCATENATE(C180,D180,E180,F180,G180,H180)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
+        <f t="shared" ref="B180:B187" si="21">CONCATENATE(C180,K180,E180,F180,G180,H180)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="C180" t="s">
         <v>211</v>
@@ -6102,21 +11601,21 @@
       <c r="G180" t="s">
         <v>184</v>
       </c>
-      <c r="H180" t="s">
-        <v>207</v>
-      </c>
-      <c r="J180" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H180" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K180" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="C181" t="s">
         <v>211</v>
@@ -6133,21 +11632,21 @@
       <c r="G181" t="s">
         <v>184</v>
       </c>
-      <c r="H181" t="s">
-        <v>208</v>
-      </c>
-      <c r="J181" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H181" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K181" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="C182" t="s">
         <v>211</v>
@@ -6164,21 +11663,21 @@
       <c r="G182" t="s">
         <v>184</v>
       </c>
-      <c r="H182" t="s">
-        <v>209</v>
-      </c>
-      <c r="J182" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K182" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="str">
-        <f t="shared" si="16"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="17"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="C183" t="s">
         <v>211</v>
@@ -6195,21 +11694,21 @@
       <c r="G183" t="s">
         <v>184</v>
       </c>
-      <c r="H183" t="s">
-        <v>210</v>
-      </c>
-      <c r="J183" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K183" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="C184" t="s">
         <v>211</v>
@@ -6224,20 +11723,23 @@
         <v>91</v>
       </c>
       <c r="G184" t="s">
-        <v>185</v>
-      </c>
-      <c r="J184" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K184" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="C185" t="s">
         <v>211</v>
@@ -6252,20 +11754,23 @@
         <v>91</v>
       </c>
       <c r="G185" t="s">
-        <v>186</v>
-      </c>
-      <c r="J185" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K185" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="C186" t="s">
         <v>211</v>
@@ -6280,20 +11785,23 @@
         <v>91</v>
       </c>
       <c r="G186" t="s">
-        <v>187</v>
-      </c>
-      <c r="J186" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K186" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="C187" t="s">
         <v>211</v>
@@ -6308,20 +11816,23 @@
         <v>91</v>
       </c>
       <c r="G187" t="s">
-        <v>188</v>
-      </c>
-      <c r="J187" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K187" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="C188" t="s">
         <v>211</v>
@@ -6336,20 +11847,20 @@
         <v>91</v>
       </c>
       <c r="G188" t="s">
-        <v>189</v>
-      </c>
-      <c r="J188" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
-        <f t="shared" si="8"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="9"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="C189" t="s">
         <v>211</v>
@@ -6364,37 +11875,149 @@
         <v>91</v>
       </c>
       <c r="G189" t="s">
+        <v>186</v>
+      </c>
+      <c r="K189" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+      </c>
+      <c r="C190" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" t="s">
+        <v>91</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
+      <c r="K190" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+      </c>
+      <c r="C191" t="s">
+        <v>211</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>27</v>
+      </c>
+      <c r="F191" t="s">
+        <v>91</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+      <c r="K191" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="C192" t="s">
+        <v>211</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F192" t="s">
+        <v>91</v>
+      </c>
+      <c r="G192" t="s">
+        <v>189</v>
+      </c>
+      <c r="K192" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="C193" t="s">
+        <v>211</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" t="s">
+        <v>27</v>
+      </c>
+      <c r="F193" t="s">
+        <v>91</v>
+      </c>
+      <c r="G193" t="s">
         <v>190</v>
       </c>
-      <c r="J189" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
-        <f t="shared" si="8"/>
+      <c r="K193" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A194" t="str">
+        <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="B190" t="str">
-        <f t="shared" si="9"/>
+      <c r="B194" t="str">
+        <f t="shared" si="13"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="C190" t="s">
-        <v>211</v>
-      </c>
-      <c r="D190" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" t="s">
-        <v>27</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="C194" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" t="s">
         <v>92</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G194" t="s">
         <v>30</v>
       </c>
-      <c r="J190" t="s">
+      <c r="K194" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Treeview_Compartiments_dev_sapco.xlsx
+++ b/Treeview_Compartiments_dev_sapco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_Dev_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5869DB37-768A-4F79-BC50-091E6F78AB49}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323A5390-26A7-4E60-9859-A8EB11B925BB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
   <sheets>
     <sheet name="01Fev23" sheetId="2" r:id="rId1"/>
@@ -1150,18 +1150,18 @@
       <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
         <v>/SAPCO/Inbound/Financials/Costing/</v>
@@ -1215,7 +1215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A68" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
         <v>/SAPCO/Inbound/Financials/Profitability/</v>
@@ -1240,7 +1240,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Financials/Profitability/Historical/</v>
@@ -1268,7 +1268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Financials/Profitability/ZIPRFANLZFINLCUB/</v>
@@ -1296,7 +1296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Balances/</v>
@@ -1321,7 +1321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Balances/ZISCINVBALFINALC/</v>
@@ -1349,7 +1349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Inventory/Transactions/</v>
@@ -1374,7 +1374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Manufacturing/Overview/</v>
@@ -1399,7 +1399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Manufacturing/Process Quality/</v>
@@ -1424,7 +1424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Invoice Lines/</v>
@@ -1449,7 +1449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Purchase Orders/</v>
@@ -1474,7 +1474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Procurement and Spend/Purchase Receipts/</v>
@@ -1499,7 +1499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Invoice Lines/</v>
@@ -1524,7 +1524,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Order Lines/</v>
@@ -1549,7 +1549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/Ship Lines/</v>
@@ -1574,7 +1574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/Sales/test_TOBEDELETED/</v>
@@ -1599,7 +1599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
@@ -1627,7 +1627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
@@ -1655,7 +1655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
@@ -1683,7 +1683,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
@@ -1711,7 +1711,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
@@ -1739,7 +1739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
@@ -1767,7 +1767,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
@@ -1795,7 +1795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
@@ -1823,7 +1823,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
@@ -1851,7 +1851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
@@ -1879,7 +1879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
@@ -1907,7 +1907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
@@ -1935,7 +1935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
@@ -1963,7 +1963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
@@ -1991,7 +1991,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
@@ -2019,7 +2019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
@@ -2047,7 +2047,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
@@ -2075,7 +2075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
@@ -2103,7 +2103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
@@ -2131,7 +2131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
@@ -2159,7 +2159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
@@ -2187,7 +2187,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
@@ -2215,7 +2215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
@@ -2243,7 +2243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
@@ -2271,7 +2271,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
@@ -2299,7 +2299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
@@ -2327,7 +2327,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
@@ -2355,7 +2355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
@@ -2383,7 +2383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
@@ -2411,7 +2411,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
@@ -2439,7 +2439,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
@@ -2467,7 +2467,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
@@ -2495,7 +2495,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
@@ -2523,7 +2523,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
@@ -2551,7 +2551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
@@ -2579,7 +2579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
@@ -2607,7 +2607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
@@ -2635,7 +2635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
@@ -2663,7 +2663,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
@@ -2691,7 +2691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
@@ -2719,7 +2719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
@@ -2747,7 +2747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
@@ -2775,7 +2775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
@@ -2803,7 +2803,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
@@ -2831,7 +2831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
@@ -2859,7 +2859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
@@ -2887,7 +2887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
@@ -2915,7 +2915,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
@@ -2943,7 +2943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
@@ -2971,7 +2971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
@@ -2999,7 +2999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
@@ -3027,7 +3027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A132" si="2">CONCATENATE(C69,D69,E69,F69,G69,H69)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
@@ -3055,7 +3055,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
@@ -3083,7 +3083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
@@ -3111,7 +3111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
@@ -3139,7 +3139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
@@ -3167,7 +3167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
@@ -3195,7 +3195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
@@ -3223,7 +3223,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
@@ -3251,7 +3251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
@@ -3279,7 +3279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
@@ -3307,7 +3307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
@@ -3335,7 +3335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
@@ -3363,7 +3363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
@@ -3391,7 +3391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
@@ -3419,7 +3419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
@@ -3447,7 +3447,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
@@ -3475,7 +3475,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
@@ -3503,7 +3503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
@@ -3531,7 +3531,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
@@ -3559,7 +3559,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
@@ -3587,7 +3587,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
@@ -3615,7 +3615,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
@@ -3643,7 +3643,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
@@ -3671,7 +3671,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
@@ -3699,7 +3699,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
@@ -3727,7 +3727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
@@ -3755,7 +3755,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
@@ -3783,7 +3783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
@@ -3811,7 +3811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
@@ -3839,7 +3839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
@@ -3867,7 +3867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
@@ -3895,7 +3895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
@@ -3923,7 +3923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
@@ -3951,7 +3951,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
@@ -3979,7 +3979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
@@ -4007,7 +4007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
@@ -4035,7 +4035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
@@ -4063,7 +4063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
@@ -4091,7 +4091,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
@@ -4119,7 +4119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
@@ -4147,7 +4147,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
@@ -4175,7 +4175,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
@@ -4203,7 +4203,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
@@ -4231,7 +4231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
@@ -4259,7 +4259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
@@ -4287,7 +4287,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
@@ -4315,7 +4315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
@@ -4343,7 +4343,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
@@ -4371,7 +4371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
@@ -4399,7 +4399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
@@ -4427,7 +4427,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
@@ -4455,7 +4455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
@@ -4483,7 +4483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
@@ -4511,7 +4511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
@@ -4539,7 +4539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
@@ -4567,7 +4567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
@@ -4595,7 +4595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
@@ -4623,7 +4623,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
@@ -4651,7 +4651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
@@ -4679,7 +4679,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
@@ -4707,7 +4707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
@@ -4735,7 +4735,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
@@ -4763,7 +4763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
@@ -4791,7 +4791,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
@@ -4819,7 +4819,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" ref="A133:A190" si="4">CONCATENATE(C133,D133,E133,F133,G133,H133)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
@@ -4847,7 +4847,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
@@ -4875,7 +4875,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
@@ -4903,7 +4903,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
@@ -4931,7 +4931,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
@@ -4959,7 +4959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
@@ -4987,7 +4987,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
@@ -5015,7 +5015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
@@ -5043,7 +5043,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
@@ -5071,7 +5071,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
@@ -5099,7 +5099,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
@@ -5127,7 +5127,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
@@ -5155,7 +5155,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
@@ -5183,7 +5183,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
@@ -5211,7 +5211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
@@ -5239,7 +5239,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
@@ -5267,7 +5267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
@@ -5295,7 +5295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
@@ -5323,7 +5323,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
@@ -5351,7 +5351,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
@@ -5379,7 +5379,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
@@ -5407,7 +5407,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
@@ -5435,7 +5435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
@@ -5463,7 +5463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
@@ -5491,7 +5491,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
@@ -5519,7 +5519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
@@ -5547,7 +5547,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
@@ -5575,7 +5575,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
@@ -5603,7 +5603,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
@@ -5631,7 +5631,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
@@ -5659,7 +5659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWH/</v>
@@ -5690,7 +5690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_MATLWHST/</v>
@@ -5721,7 +5721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TR/</v>
@@ -5752,7 +5752,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRM/</v>
@@ -5783,7 +5783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMC/</v>
@@ -5814,7 +5814,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/SAPAPO_TRMCARR/</v>
@@ -5845,7 +5845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
@@ -5873,7 +5873,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_TOENTITY/</v>
@@ -5904,7 +5904,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_D/</v>
@@ -5935,7 +5935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_P/</v>
@@ -5966,7 +5966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE_R/</v>
@@ -5997,7 +5997,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/SCMB_ZONE/</v>
@@ -6028,7 +6028,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_AQUA/</v>
@@ -6059,7 +6059,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_BINMAT/</v>
@@ -6090,7 +6090,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_HUHDR/</v>
@@ -6121,7 +6121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_LAGP/</v>
@@ -6152,7 +6152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PAPAK/</v>
@@ -6183,7 +6183,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PNPAKH/</v>
@@ -6214,7 +6214,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKC/</v>
@@ -6245,7 +6245,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_PVPAKL/</v>
@@ -6276,7 +6276,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/SCWM_QUAN/</v>
@@ -6307,7 +6307,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
@@ -6335,7 +6335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
@@ -6363,7 +6363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
@@ -6391,7 +6391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
@@ -6419,7 +6419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
@@ -6447,7 +6447,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
@@ -6475,7 +6475,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
@@ -6512,24 +6512,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BCB69-F888-4B7E-92ED-E9FA4A26428F}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2)</f>
         <v>/SAPCO/Inbound/FINANCIAL/COSTING/</v>
@@ -6586,7 +6586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A68" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
         <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/HISTORICAL/</v>
@@ -6614,7 +6614,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4" si="1">CONCATENATE(C4,D4,E4,F4,G4,H4)</f>
         <v>/SAPCO/Inbound/FINANCIAL/PROFITABILITY/PROFITABILITY/</v>
@@ -6642,7 +6642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/INVENTORY/BALANCES/</v>
@@ -6667,7 +6667,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/INVENTORY/TRANSACTIONS/</v>
@@ -6692,7 +6692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MANUFACTURING/OVERVIEW/</v>
@@ -6717,7 +6717,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MANUFACTURING/PROCESSQUALITY/</v>
@@ -6742,7 +6742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/INVOICELINE/</v>
@@ -6767,7 +6767,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASEORDER/</v>
@@ -6792,7 +6792,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/PROCUREMENTANDSPEND/PURCHASERECEIPT/</v>
@@ -6817,7 +6817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/SALE/INVOICELINES/</v>
@@ -6842,7 +6842,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/SALE/ORDERLINES/</v>
@@ -6867,7 +6867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/SALE/SHIPLINES/</v>
@@ -6892,7 +6892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/FIN_T001/</v>
@@ -6920,7 +6920,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T001/</v>
@@ -6948,7 +6948,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" ref="A17:A19" si="4">CONCATENATE(C17,D17,E17,F17,G17,H17)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009/</v>
@@ -6979,7 +6979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009B/</v>
@@ -7010,7 +7010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="4"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/FIN/T009C/</v>
@@ -7041,7 +7041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A526/</v>
@@ -7069,7 +7069,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A528/</v>
@@ -7097,7 +7097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A531/</v>
@@ -7125,7 +7125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A532/</v>
@@ -7153,7 +7153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A533/</v>
@@ -7181,7 +7181,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A534/</v>
@@ -7209,7 +7209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A537/</v>
@@ -7237,7 +7237,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A541/</v>
@@ -7265,7 +7265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A542/</v>
@@ -7293,7 +7293,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A701/</v>
@@ -7321,7 +7321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A702/</v>
@@ -7349,7 +7349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/A703/</v>
@@ -7377,7 +7377,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR2/</v>
@@ -7405,7 +7405,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADR6/</v>
@@ -7433,7 +7433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ADRC/</v>
@@ -7461,7 +7461,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/AUSP/</v>
@@ -7489,7 +7489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B501/</v>
@@ -7517,7 +7517,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B503/</v>
@@ -7545,7 +7545,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B504/</v>
@@ -7573,7 +7573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B511/</v>
@@ -7601,7 +7601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/B512/</v>
@@ -7629,7 +7629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT000/</v>
@@ -7657,7 +7657,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT020/</v>
@@ -7685,7 +7685,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/BUT100/</v>
@@ -7713,7 +7713,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/DFKKBPTAXNUM/</v>
@@ -7741,7 +7741,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDIPHONE/</v>
@@ -7769,7 +7769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP12/</v>
@@ -7797,7 +7797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP13/</v>
@@ -7825,7 +7825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDP21/</v>
@@ -7853,7 +7853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPAR/</v>
@@ -7881,7 +7881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDPP1/</v>
@@ -7909,7 +7909,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/EDSDC/</v>
@@ -7937,7 +7937,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNA1/</v>
@@ -7965,7 +7965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB1/</v>
@@ -7993,7 +7993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNB5/</v>
@@ -8021,7 +8021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMT/</v>
@@ -8049,7 +8049,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNMTA/</v>
@@ -8077,7 +8077,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVH/</v>
@@ -8105,7 +8105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVI/</v>
@@ -8133,7 +8133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVP/</v>
@@ -8161,7 +8161,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KNVV/</v>
@@ -8189,7 +8189,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONDH/</v>
@@ -8217,7 +8217,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONH/</v>
@@ -8245,7 +8245,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONM/</v>
@@ -8273,7 +8273,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KONP/</v>
@@ -8301,7 +8301,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH001/</v>
@@ -8329,7 +8329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH900/</v>
@@ -8357,7 +8357,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/KOTH903/</v>
@@ -8385,7 +8385,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/NACH/</v>
@@ -8413,7 +8413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" ref="A69:A136" si="8">CONCATENATE(C69,D69,E69,F69,G69,H69)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXH/</v>
@@ -8441,7 +8441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/STXL/</v>
@@ -8469,7 +8469,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f t="shared" ref="A71:A72" si="10">CONCATENATE(C71,D71,E71,F71,G71,H71)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T6821/</v>
@@ -8500,7 +8500,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f t="shared" si="10"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/T685/</v>
@@ -8531,7 +8531,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/TVKO/</v>
@@ -8559,7 +8559,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPPROFILE/</v>
@@ -8587,7 +8587,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UDMBPSEGMENTS/</v>
@@ -8615,7 +8615,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/UKMBP/</v>
@@ -8643,7 +8643,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/OTC/ZTCO/</v>
@@ -8671,7 +8671,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AFPO/</v>
@@ -8699,7 +8699,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/AUFK/</v>
@@ -8727,7 +8727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CABN/</v>
@@ -8755,7 +8755,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CAUFV/</v>
@@ -8783,7 +8783,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCA/</v>
@@ -8811,7 +8811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRCO/</v>
@@ -8839,7 +8839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRHD/</v>
@@ -8867,7 +8867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/CRTX/</v>
@@ -8895,7 +8895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKO/</v>
@@ -8923,7 +8923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KAKT/</v>
@@ -8951,7 +8951,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/KLAH/</v>
@@ -8979,7 +8979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAKT/</v>
@@ -9007,7 +9007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAPL/</v>
@@ -9035,7 +9035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARA/</v>
@@ -9063,7 +9063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARC/</v>
@@ -9091,7 +9091,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARD/</v>
@@ -9119,7 +9119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MARM/</v>
@@ -9147,7 +9147,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MAST/</v>
@@ -9175,7 +9175,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MKAL/</v>
@@ -9203,7 +9203,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MLAN/</v>
@@ -9231,7 +9231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/MVKE/</v>
@@ -9259,7 +9259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLKO/</v>
@@ -9287,7 +9287,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLMK/</v>
@@ -9315,7 +9315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/PLPO/</v>
@@ -9343,7 +9343,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVK/</v>
@@ -9371,7 +9371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVM/</v>
@@ -9399,7 +9399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVMT/</v>
@@ -9427,7 +9427,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QCVV/</v>
@@ -9455,7 +9455,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMAT/</v>
@@ -9483,7 +9483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTB/</v>
@@ -9511,7 +9511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QMTT/</v>
@@ -9539,7 +9539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMK/</v>
@@ -9567,7 +9567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/QPMZ/</v>
@@ -9595,7 +9595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/RESB/</v>
@@ -9623,7 +9623,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
         <f>CONCATENATE(C112,D112,E112,F112,G112,H112,I112)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/</v>
@@ -9653,7 +9653,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="str">
         <f>CONCATENATE(C113,D113,E113,F113,G113,H113,I113)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MAT/</v>
@@ -9687,7 +9687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="str">
         <f>CONCATENATE(C114,D114,E114,F114,G114,H114,I114)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/SAPAPO/CHAR/MID/</v>
@@ -9721,7 +9721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>CONCATENATE(C115,D115,E115,F115,G115,H115)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STKO/</v>
@@ -9749,7 +9749,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/STPO/</v>
@@ -9777,7 +9777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTM/TCRCOT/</v>
@@ -9805,7 +9805,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A017/</v>
@@ -9833,7 +9833,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/A018/</v>
@@ -9861,7 +9861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINA/</v>
@@ -9889,7 +9889,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EINE/</v>
@@ -9917,7 +9917,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/EORD/</v>
@@ -9945,7 +9945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/KNBK/</v>
@@ -9973,7 +9973,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFA1/</v>
@@ -10001,7 +10001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFB1/</v>
@@ -10029,7 +10029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBK/</v>
@@ -10057,7 +10057,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFBW/</v>
@@ -10085,7 +10085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/LFM1/</v>
@@ -10113,7 +10113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T001W/</v>
@@ -10141,7 +10141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/T024E/</v>
@@ -10169,7 +10169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/PTP/WYT3/</v>
@@ -10197,7 +10197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANEP/</v>
@@ -10225,7 +10225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLA/</v>
@@ -10253,7 +10253,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLB/</v>
@@ -10281,7 +10281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLC/</v>
@@ -10309,7 +10309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="8"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLH/</v>
@@ -10337,7 +10337,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" ref="A137:A194" si="12">CONCATENATE(C137,D137,E137,F137,G137,H137)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
@@ -10365,7 +10365,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BKPF/</v>
@@ -10393,7 +10393,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BNKA/</v>
@@ -10421,7 +10421,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSET/</v>
@@ -10449,7 +10449,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/BSIS/</v>
@@ -10477,7 +10477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKS/</v>
@@ -10505,7 +10505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/CSKT/</v>
@@ -10533,7 +10533,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRHI/</v>
@@ -10561,7 +10561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PROJ/</v>
@@ -10589,7 +10589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/PRPS/</v>
@@ -10617,7 +10617,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKA1/</v>
@@ -10645,7 +10645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKAT/</v>
@@ -10673,7 +10673,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/SKB1/</v>
@@ -10701,7 +10701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSEG/</v>
@@ -10729,7 +10729,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ZBSIK/</v>
@@ -10757,7 +10757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/AQUA/</v>
@@ -10785,7 +10785,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/BINMAT/</v>
@@ -10813,7 +10813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/CONDINDX/</v>
@@ -10841,7 +10841,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/HUHDR/</v>
@@ -10869,7 +10869,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/LAGP/</v>
@@ -10897,7 +10897,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWH/</v>
@@ -10925,7 +10925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MATLWHST/</v>
@@ -10953,7 +10953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MCHA/</v>
@@ -10981,7 +10981,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MKPF/</v>
@@ -11009,7 +11009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/MSEG/</v>
@@ -11037,7 +11037,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PAPAK/</v>
@@ -11065,7 +11065,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PNPAKH/</v>
@@ -11093,7 +11093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKC/</v>
@@ -11121,7 +11121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/PVPAKL/</v>
@@ -11149,7 +11149,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/QUAN/</v>
@@ -11177,7 +11177,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWH/</v>
@@ -11208,7 +11208,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" ref="A168:A171" si="14">CONCATENATE(C168,D168,E168,F168,G168,H168)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/MATLWHST/</v>
@@ -11239,7 +11239,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TR/</v>
@@ -11270,7 +11270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRM/</v>
@@ -11301,7 +11301,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="14"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMC/</v>
@@ -11332,7 +11332,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" ref="A172" si="16">CONCATENATE(C172,D172,E172,F172,G172,H172)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
@@ -11363,7 +11363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
@@ -11391,7 +11391,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
@@ -11422,7 +11422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" ref="A175:A178" si="18">CONCATENATE(C175,D175,E175,F175,G175,H175)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
@@ -11453,7 +11453,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="18"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
@@ -11484,7 +11484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="18"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
@@ -11515,7 +11515,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="18"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
@@ -11546,7 +11546,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
@@ -11577,7 +11577,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" ref="A180:A187" si="20">CONCATENATE(C180,D180,E180,F180,G180,H180)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
@@ -11608,7 +11608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
@@ -11639,7 +11639,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
@@ -11670,7 +11670,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
@@ -11701,7 +11701,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
@@ -11732,7 +11732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
@@ -11763,7 +11763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
@@ -11794,7 +11794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="20"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
@@ -11825,7 +11825,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
@@ -11853,7 +11853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
@@ -11881,7 +11881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
@@ -11909,7 +11909,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
@@ -11937,7 +11937,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
@@ -11965,7 +11965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
@@ -11993,7 +11993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>

--- a/Treeview_Compartiments_dev_sapco.xlsx
+++ b/Treeview_Compartiments_dev_sapco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agropur-my.sharepoint.com/personal/cesar_arce_agropur_com/Documents/Documents/Python Scripts/AWS_S3_Glue_Dev_manual_commit_gzipfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323A5390-26A7-4E60-9859-A8EB11B925BB}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{5F1195FD-7DD5-425A-BB16-96E5C38AD771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CDD290D-773D-435F-AA09-820112B408EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
+    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{47CDF58C-05E4-437B-B922-21426A76DED4}"/>
   </bookViews>
   <sheets>
     <sheet name="01Fev23" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="248">
   <si>
     <t>source</t>
   </si>
@@ -775,6 +775,12 @@
   </si>
   <si>
     <t>Level_7</t>
+  </si>
+  <si>
+    <t>SAPCND_CONDINDX/</t>
+  </si>
+  <si>
+    <t>SAPCN/</t>
   </si>
 </sst>
 </file>
@@ -6510,10 +6516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796BCB69-F888-4B7E-92ED-E9FA4A26428F}">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10339,11 +10345,11 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" ref="A137:A194" si="12">CONCATENATE(C137,D137,E137,F137,G137,H137)</f>
+        <f t="shared" ref="A137:A196" si="12">CONCATENATE(C137,D137,E137,F137,G137,H137)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" ref="B137:B194" si="13">CONCATENATE(C137,K137,E137,F137,G137,H137)</f>
+        <f t="shared" ref="B137:B196" si="13">CONCATENATE(C137,K137,E137,F137,G137,H137)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/RTR/ANLZ/</v>
       </c>
       <c r="C137" t="s">
@@ -11334,11 +11340,11 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" ref="A172" si="16">CONCATENATE(C172,D172,E172,F172,G172,H172)</f>
+        <f t="shared" ref="A172:A173" si="16">CONCATENATE(C172,D172,E172,F172,G172,H172)</f>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" ref="B172" si="17">CONCATENATE(C172,K172,E172,F172,G172,H172)</f>
+        <f t="shared" ref="B172:B173" si="17">CONCATENATE(C172,K172,E172,F172,G172,H172)</f>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPAPO/TRMCARR/</v>
       </c>
       <c r="C172" t="s">
@@ -11365,12 +11371,12 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="16"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCN/</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/</v>
+        <f t="shared" si="17"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCN/</v>
       </c>
       <c r="C173" t="s">
         <v>211</v>
@@ -11385,8 +11391,9 @@
         <v>91</v>
       </c>
       <c r="G173" t="s">
-        <v>182</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="H173" s="1"/>
       <c r="K173" t="s">
         <v>146</v>
       </c>
@@ -11394,11 +11401,11 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/CONDINDX/</v>
       </c>
       <c r="C174" t="s">
         <v>211</v>
@@ -11413,10 +11420,10 @@
         <v>91</v>
       </c>
       <c r="G174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="K174" t="s">
         <v>146</v>
@@ -11424,12 +11431,12 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" ref="A175:A178" si="18">CONCATENATE(C175,D175,E175,F175,G175,H175)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+        <f t="shared" ref="A175" si="18">CONCATENATE(C175,D175,E175,F175,G175,H175)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SAPCND/SAPCND_CONDINDX/</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" ref="B175:B178" si="19">CONCATENATE(C175,K175,E175,F175,G175,H175)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
+        <f t="shared" ref="B175" si="19">CONCATENATE(C175,K175,E175,F175,G175,H175)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SAPCND/SAPCND_CONDINDX/</v>
       </c>
       <c r="C175" t="s">
         <v>211</v>
@@ -11444,10 +11451,10 @@
         <v>91</v>
       </c>
       <c r="G175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K175" t="s">
         <v>146</v>
@@ -11455,12 +11462,12 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="18"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="19"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/TOENTITY/</v>
       </c>
       <c r="C176" t="s">
         <v>211</v>
@@ -11478,7 +11485,7 @@
         <v>183</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K176" t="s">
         <v>146</v>
@@ -11486,12 +11493,12 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="18"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+        <f t="shared" ref="A177:A180" si="20">CONCATENATE(C177,D177,E177,F177,G177,H177)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="19"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+        <f t="shared" ref="B177:B180" si="21">CONCATENATE(C177,K177,E177,F177,G177,H177)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONED/</v>
       </c>
       <c r="C177" t="s">
         <v>211</v>
@@ -11509,7 +11516,7 @@
         <v>183</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K177" t="s">
         <v>146</v>
@@ -11517,12 +11524,12 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="18"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="19"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONEP/</v>
       </c>
       <c r="C178" t="s">
         <v>211</v>
@@ -11540,7 +11547,7 @@
         <v>183</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K178" t="s">
         <v>146</v>
@@ -11548,75 +11555,75 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONER/</v>
+      </c>
+      <c r="C179" t="s">
+        <v>211</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" t="s">
+        <v>91</v>
+      </c>
+      <c r="G179" t="s">
+        <v>183</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="20"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="21"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCMB/ZONE/</v>
+      </c>
+      <c r="C180" t="s">
+        <v>211</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" t="s">
+        <v>91</v>
+      </c>
+      <c r="G180" t="s">
+        <v>183</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K180" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
         <f t="shared" si="12"/>
         <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
-      <c r="B179" t="str">
+      <c r="B181" t="str">
         <f t="shared" si="13"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/AQUA/</v>
       </c>
-      <c r="C179" t="s">
-        <v>211</v>
-      </c>
-      <c r="D179" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" t="s">
-        <v>27</v>
-      </c>
-      <c r="F179" t="s">
-        <v>91</v>
-      </c>
-      <c r="G179" t="s">
-        <v>184</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
-        <f t="shared" ref="A180:A187" si="20">CONCATENATE(C180,D180,E180,F180,G180,H180)</f>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
-      </c>
-      <c r="B180" t="str">
-        <f t="shared" ref="B180:B187" si="21">CONCATENATE(C180,K180,E180,F180,G180,H180)</f>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
-      </c>
-      <c r="C180" t="s">
-        <v>211</v>
-      </c>
-      <c r="D180" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" t="s">
-        <v>27</v>
-      </c>
-      <c r="F180" t="s">
-        <v>91</v>
-      </c>
-      <c r="G180" t="s">
-        <v>184</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K180" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
-      </c>
-      <c r="B181" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
-      </c>
       <c r="C181" t="s">
         <v>211</v>
       </c>
@@ -11633,7 +11640,7 @@
         <v>184</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K181" t="s">
         <v>146</v>
@@ -11641,12 +11648,12 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+        <f t="shared" ref="A182:A189" si="22">CONCATENATE(C182,D182,E182,F182,G182,H182)</f>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
+        <f t="shared" ref="B182:B189" si="23">CONCATENATE(C182,K182,E182,F182,G182,H182)</f>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/BINMAT/</v>
       </c>
       <c r="C182" t="s">
         <v>211</v>
@@ -11664,7 +11671,7 @@
         <v>184</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K182" t="s">
         <v>146</v>
@@ -11672,12 +11679,12 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/HUHDR/</v>
       </c>
       <c r="C183" t="s">
         <v>211</v>
@@ -11695,7 +11702,7 @@
         <v>184</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K183" t="s">
         <v>146</v>
@@ -11703,12 +11710,12 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/LAGP/</v>
       </c>
       <c r="C184" t="s">
         <v>211</v>
@@ -11726,7 +11733,7 @@
         <v>184</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K184" t="s">
         <v>146</v>
@@ -11734,12 +11741,12 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PAPAK/</v>
       </c>
       <c r="C185" t="s">
         <v>211</v>
@@ -11757,7 +11764,7 @@
         <v>184</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K185" t="s">
         <v>146</v>
@@ -11765,12 +11772,12 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PNPAKH/</v>
       </c>
       <c r="C186" t="s">
         <v>211</v>
@@ -11788,7 +11795,7 @@
         <v>184</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K186" t="s">
         <v>146</v>
@@ -11796,12 +11803,12 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="20"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="21"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKC/</v>
       </c>
       <c r="C187" t="s">
         <v>211</v>
@@ -11819,7 +11826,7 @@
         <v>184</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K187" t="s">
         <v>146</v>
@@ -11827,12 +11834,12 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/PVPAKL/</v>
       </c>
       <c r="C188" t="s">
         <v>211</v>
@@ -11847,7 +11854,10 @@
         <v>91</v>
       </c>
       <c r="G188" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="K188" t="s">
         <v>146</v>
@@ -11855,12 +11865,12 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="22"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
+        <f t="shared" si="23"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/SCWM/QUAN/</v>
       </c>
       <c r="C189" t="s">
         <v>211</v>
@@ -11875,7 +11885,10 @@
         <v>91</v>
       </c>
       <c r="G189" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="K189" t="s">
         <v>146</v>
@@ -11884,11 +11897,11 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/T001L/</v>
       </c>
       <c r="C190" t="s">
         <v>211</v>
@@ -11903,7 +11916,7 @@
         <v>91</v>
       </c>
       <c r="G190" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K190" t="s">
         <v>146</v>
@@ -11912,11 +11925,11 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TR/</v>
       </c>
       <c r="C191" t="s">
         <v>211</v>
@@ -11931,7 +11944,7 @@
         <v>91</v>
       </c>
       <c r="G191" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K191" t="s">
         <v>146</v>
@@ -11940,11 +11953,11 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRM/</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRM/</v>
       </c>
       <c r="C192" t="s">
         <v>211</v>
@@ -11959,7 +11972,7 @@
         <v>91</v>
       </c>
       <c r="G192" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K192" t="s">
         <v>146</v>
@@ -11968,11 +11981,11 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMC/</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="13"/>
-        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMC/</v>
       </c>
       <c r="C193" t="s">
         <v>211</v>
@@ -11987,7 +12000,7 @@
         <v>91</v>
       </c>
       <c r="G193" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K193" t="s">
         <v>146</v>
@@ -11996,28 +12009,84 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="12"/>
-        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TRMCARR/</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TRMCARR/</v>
+      </c>
+      <c r="C194" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" t="s">
+        <v>91</v>
+      </c>
+      <c r="G194" t="s">
+        <v>189</v>
+      </c>
+      <c r="K194" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="13"/>
+        <v>/SAPCO/Archive/MASTER_DATA_TABLES/SC/TVST</v>
+      </c>
+      <c r="C195" t="s">
+        <v>211</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" t="s">
+        <v>91</v>
+      </c>
+      <c r="G195" t="s">
+        <v>190</v>
+      </c>
+      <c r="K195" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="12"/>
+        <v>/SAPCO/Inbound/MASTER_DATA_TABLES/TEST/T001/</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="13"/>
         <v>/SAPCO/Archive/MASTER_DATA_TABLES/TEST/T001/</v>
       </c>
-      <c r="C194" t="s">
-        <v>211</v>
-      </c>
-      <c r="D194" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" t="s">
-        <v>27</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="C196" t="s">
+        <v>211</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" t="s">
         <v>92</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G196" t="s">
         <v>30</v>
       </c>
-      <c r="K194" t="s">
+      <c r="K196" t="s">
         <v>146</v>
       </c>
     </row>
